--- a/dfc_tracking/dfc_tracking_data.xlsx
+++ b/dfc_tracking/dfc_tracking_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanboulanger-weill/Desktop/Projects/meteorin/dfc_tracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E0941D-1D32-7A45-82A7-0E9D9F50FEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B318B2-DEDF-9445-981E-D51352C91FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{BEE6B911-8E3F-4471-AA32-223DC6B69D46}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{BEE6B911-8E3F-4471-AA32-223DC6B69D46}"/>
   </bookViews>
   <sheets>
     <sheet name="wt1_18012024" sheetId="5" r:id="rId1"/>
@@ -3217,8 +3217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0351900-76D1-5B4A-BEFE-499A50BDB7B7}">
   <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4322,7 +4322,7 @@
         <v>286</v>
       </c>
       <c r="R15">
-        <v>44</v>
+        <v>444</v>
       </c>
       <c r="S15" s="3">
         <v>34</v>
@@ -7022,7 +7022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03F8316-133B-6946-B875-911D82B8FECE}">
   <dimension ref="A1:AE15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AF23" sqref="AF23"/>
     </sheetView>
   </sheetViews>
